--- a/StateLaws.xlsx
+++ b/StateLaws.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aba48\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saver_000\protests\protestlegally\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="231">
   <si>
     <t>State</t>
   </si>
@@ -729,20 +729,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -757,13 +749,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -777,61 +813,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1147,26 +1168,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A3:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="122.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -1174,1086 +1191,1101 @@
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>186.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="F32" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="F34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="D42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="F54" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="D60" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="D62" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:6" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="D64" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:8" s="7" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="D66" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="D68" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="F70" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D72" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="D72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:8" s="7" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D76" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:8" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:8" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:8" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="6">
         <v>20</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F80" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="H80" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <v>50</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F82" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="H82" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="F84" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:8" s="7" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D86" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D100" t="s">
-        <v>77</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="D100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E96" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C19" r:id="rId9"/>
+    <hyperlink ref="C20" r:id="rId10"/>
+    <hyperlink ref="C22" r:id="rId11"/>
+    <hyperlink ref="C24" r:id="rId12"/>
+    <hyperlink ref="C26" r:id="rId13"/>
+    <hyperlink ref="C28" r:id="rId14"/>
+    <hyperlink ref="C30" r:id="rId15"/>
+    <hyperlink ref="E30" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>